--- a/Prediction/testdata.xlsx
+++ b/Prediction/testdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +52,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +349,1550 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>7.5</v>
+      </c>
+      <c r="B1">
+        <v>1.0971380697557886</v>
+      </c>
+      <c r="C1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D1">
+        <v>0.96875</v>
+      </c>
+      <c r="E1">
+        <v>-1.1999999999999993</v>
+      </c>
+      <c r="F1">
+        <v>0.12838806975578865</v>
+      </c>
+      <c r="G1">
+        <v>24</v>
+      </c>
+      <c r="H1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14.3</v>
+      </c>
+      <c r="B2">
+        <v>0.64983311702420754</v>
+      </c>
+      <c r="C2">
+        <v>13.7</v>
+      </c>
+      <c r="D2">
+        <v>1.0262044270666593</v>
+      </c>
+      <c r="E2">
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="F2">
+        <v>-0.37637131004245172</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20.2</v>
+      </c>
+      <c r="B3">
+        <v>0.84544855271293406</v>
+      </c>
+      <c r="C3">
+        <v>19.3</v>
+      </c>
+      <c r="D3">
+        <v>0.76822916663331853</v>
+      </c>
+      <c r="E3">
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="F3">
+        <v>7.7219386079615537E-2</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26.599999999999998</v>
+      </c>
+      <c r="B4">
+        <v>1.2726784983503387</v>
+      </c>
+      <c r="C4">
+        <v>24.6</v>
+      </c>
+      <c r="D4">
+        <v>2.4080403646333557</v>
+      </c>
+      <c r="E4">
+        <v>1.9999999999999964</v>
+      </c>
+      <c r="F4">
+        <v>-1.1353618662830169</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30.900000000000002</v>
+      </c>
+      <c r="B5">
+        <v>1.7295918740161924</v>
+      </c>
+      <c r="C5">
+        <v>30.5</v>
+      </c>
+      <c r="D5">
+        <v>0.86344401039999275</v>
+      </c>
+      <c r="E5">
+        <v>0.40000000000000213</v>
+      </c>
+      <c r="F5">
+        <v>0.86614786361619966</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0.87276213805311587</v>
+      </c>
+      <c r="C6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D6">
+        <v>2.1769205728999923</v>
+      </c>
+      <c r="E6">
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="F6">
+        <v>-1.3041584348468764</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>41.699999999999996</v>
+      </c>
+      <c r="B7">
+        <v>2.2552631081423002</v>
+      </c>
+      <c r="C7">
+        <v>41.3</v>
+      </c>
+      <c r="D7">
+        <v>2.0779622395933379</v>
+      </c>
+      <c r="E7">
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="F7">
+        <v>0.17730086854896232</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50.699999999999996</v>
+      </c>
+      <c r="B8">
+        <v>2.0588240717054762</v>
+      </c>
+      <c r="C8">
+        <v>48.1</v>
+      </c>
+      <c r="D8">
+        <v>2.314453125</v>
+      </c>
+      <c r="E8">
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="F8">
+        <v>-0.25562905329452379</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>54.900000000000006</v>
+      </c>
+      <c r="B9">
+        <v>1.5976389567851557</v>
+      </c>
+      <c r="C9">
+        <v>55.1</v>
+      </c>
+      <c r="D9">
+        <v>1.3159179686999778</v>
+      </c>
+      <c r="E9">
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="F9">
+        <v>0.28172098808517787</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="B10">
+        <v>0.39275042763489476</v>
+      </c>
+      <c r="C10">
+        <v>58.6</v>
+      </c>
+      <c r="D10">
+        <v>0.79671223956665926</v>
+      </c>
+      <c r="E10">
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="F10">
+        <v>-0.4039618119317645</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>1.4583384889207274</v>
+      </c>
+      <c r="C11">
+        <v>65.5</v>
+      </c>
+      <c r="D11">
+        <v>2.5854492188000222</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>-1.1271107298792948</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>73.199999999999989</v>
+      </c>
+      <c r="B12">
+        <v>1.9682385756642828</v>
+      </c>
+      <c r="C12">
+        <v>71.3</v>
+      </c>
+      <c r="D12">
+        <v>1.4428710938000222</v>
+      </c>
+      <c r="E12">
+        <v>1.8999999999999915</v>
+      </c>
+      <c r="F12">
+        <v>0.52536748186426063</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>1.2263016949041283</v>
+      </c>
+      <c r="C13">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D13">
+        <v>1.6471354166333185</v>
+      </c>
+      <c r="E13">
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="F13">
+        <v>-0.4208337217291902</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>83.8</v>
+      </c>
+      <c r="B14">
+        <v>1.3190047895743895</v>
+      </c>
+      <c r="C14">
+        <v>82.2</v>
+      </c>
+      <c r="D14">
+        <v>1.6870117187333262</v>
+      </c>
+      <c r="E14">
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="F14">
+        <v>-0.36800692915893674</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>92.2</v>
+      </c>
+      <c r="B15">
+        <v>1.0716934759540087</v>
+      </c>
+      <c r="C15">
+        <v>91.6</v>
+      </c>
+      <c r="D15">
+        <v>1.1106770833333335</v>
+      </c>
+      <c r="E15">
+        <v>0.60000000000000853</v>
+      </c>
+      <c r="F15">
+        <v>-3.8983607379324825E-2</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>98.2</v>
+      </c>
+      <c r="B16">
+        <v>1.579923293576138</v>
+      </c>
+      <c r="C16">
+        <v>97.5</v>
+      </c>
+      <c r="D16">
+        <v>1.7106119792000145</v>
+      </c>
+      <c r="E16">
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="F16">
+        <v>-0.13068868562387648</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>103.80000000000001</v>
+      </c>
+      <c r="B17">
+        <v>1.3475384166320534</v>
+      </c>
+      <c r="C17">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>0.4736328125</v>
+      </c>
+      <c r="E17">
+        <v>-0.19999999999998863</v>
+      </c>
+      <c r="F17">
+        <v>0.87390560413205343</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>111.5</v>
+      </c>
+      <c r="B18">
+        <v>0.7003365164326647</v>
+      </c>
+      <c r="C18">
+        <v>110.4</v>
+      </c>
+      <c r="D18">
+        <v>0.99446614583333348</v>
+      </c>
+      <c r="E18">
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="F18">
+        <v>-0.29412962940066878</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>120.5</v>
+      </c>
+      <c r="B19">
+        <v>1.2814238684342094</v>
+      </c>
+      <c r="C19">
+        <v>120.6</v>
+      </c>
+      <c r="D19">
+        <v>1.0050455729333407</v>
+      </c>
+      <c r="E19">
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.27637829550086868</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>127.10000000000001</v>
+      </c>
+      <c r="B20">
+        <v>1.0850155341984542</v>
+      </c>
+      <c r="C20">
+        <v>126.2</v>
+      </c>
+      <c r="D20">
+        <v>1.378580729166667</v>
+      </c>
+      <c r="E20">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="F20">
+        <v>-0.29356519496821276</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>132.9</v>
+      </c>
+      <c r="B21">
+        <v>1.4089673932521352</v>
+      </c>
+      <c r="C21">
+        <v>133.4</v>
+      </c>
+      <c r="D21">
+        <v>0.95377604166666652</v>
+      </c>
+      <c r="E21">
+        <v>-0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.45519135158546864</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="B22">
+        <v>1.4400691567313069</v>
+      </c>
+      <c r="C22">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.8253580728666448</v>
+      </c>
+      <c r="E22">
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="F22">
+        <v>-0.38528891613533789</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="B23">
+        <v>1.7905719936615851</v>
+      </c>
+      <c r="C23">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="D23">
+        <v>1.475260416666667</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.31531157699491819</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>157.5</v>
+      </c>
+      <c r="B24">
+        <v>1.8748408774840346</v>
+      </c>
+      <c r="C24">
+        <v>156.9</v>
+      </c>
+      <c r="D24">
+        <v>2.7490234374666516</v>
+      </c>
+      <c r="E24">
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="F24">
+        <v>-0.87418255998261696</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>162.60000000000002</v>
+      </c>
+      <c r="B25">
+        <v>1.8190540497308503</v>
+      </c>
+      <c r="C25">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D25">
+        <v>1.6040039062333258</v>
+      </c>
+      <c r="E25">
+        <v>0.40000000000003411</v>
+      </c>
+      <c r="F25">
+        <v>0.21505014349752449</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>170</v>
+      </c>
+      <c r="B26">
+        <v>1.8927601846056823</v>
+      </c>
+      <c r="C26">
+        <v>168.9</v>
+      </c>
+      <c r="D26">
+        <v>1.0913085937666742</v>
+      </c>
+      <c r="E26">
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="F26">
+        <v>0.80145159083900808</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>175.3</v>
+      </c>
+      <c r="B27">
+        <v>1.1946058863607689</v>
+      </c>
+      <c r="C27">
+        <v>174.6</v>
+      </c>
+      <c r="D27">
+        <v>0.91715494786664431</v>
+      </c>
+      <c r="E27">
+        <v>0.70000000000001705</v>
+      </c>
+      <c r="F27">
+        <v>0.27745093849412461</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>181</v>
+      </c>
+      <c r="B28">
+        <v>0.69954236295226768</v>
+      </c>
+      <c r="C28">
+        <v>179.9</v>
+      </c>
+      <c r="D28">
+        <v>0.69742838543334074</v>
+      </c>
+      <c r="E28">
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="F28">
+        <v>2.1139775189269461E-3</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>186.8</v>
+      </c>
+      <c r="B29">
+        <v>1.7577925024527328</v>
+      </c>
+      <c r="C29">
+        <v>187.3</v>
+      </c>
+      <c r="D29">
+        <v>0.96923828126667422</v>
+      </c>
+      <c r="E29">
+        <v>-0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.78855422118605856</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>194</v>
+      </c>
+      <c r="B30">
+        <v>1.1287632427095839</v>
+      </c>
+      <c r="C30">
+        <v>198.6</v>
+      </c>
+      <c r="D30">
+        <v>2.0084635416333185</v>
+      </c>
+      <c r="E30">
+        <v>-4.5999999999999943</v>
+      </c>
+      <c r="F30">
+        <v>-0.87970029892373458</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>206</v>
+      </c>
+      <c r="B31">
+        <v>2.5680447636533179</v>
+      </c>
+      <c r="C31">
+        <v>206.8</v>
+      </c>
+      <c r="D31">
+        <v>0.99853515626667422</v>
+      </c>
+      <c r="E31">
+        <v>-0.80000000000001137</v>
+      </c>
+      <c r="F31">
+        <v>1.5695096073866437</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>211.60000000000002</v>
+      </c>
+      <c r="B32">
+        <v>0.80236943288003071</v>
+      </c>
+      <c r="C32">
+        <v>210.6</v>
+      </c>
+      <c r="D32">
+        <v>0.94889322916666652</v>
+      </c>
+      <c r="E32">
+        <v>1.0000000000000284</v>
+      </c>
+      <c r="F32">
+        <v>-0.14652379628663581</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>218.3</v>
+      </c>
+      <c r="B33">
+        <v>3.4502408099953841</v>
+      </c>
+      <c r="C33">
+        <v>220.5</v>
+      </c>
+      <c r="D33">
+        <v>2.2037760416666665</v>
+      </c>
+      <c r="E33">
+        <v>-2.1999999999999886</v>
+      </c>
+      <c r="F33">
+        <v>1.2464647683287176</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>227.4</v>
+      </c>
+      <c r="B34">
+        <v>2.4402910674221525</v>
+      </c>
+      <c r="C34">
+        <v>226.7</v>
+      </c>
+      <c r="D34">
+        <v>2.5244140624666516</v>
+      </c>
+      <c r="E34">
+        <v>0.70000000000001705</v>
+      </c>
+      <c r="F34">
+        <v>-8.4122995044499049E-2</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>236.7</v>
+      </c>
+      <c r="B35">
+        <v>0.69027397760019427</v>
+      </c>
+      <c r="C35">
+        <v>231.8</v>
+      </c>
+      <c r="D35">
+        <v>1.2141927083666815</v>
+      </c>
+      <c r="E35">
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="F35">
+        <v>-0.52391873076648721</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>238.8</v>
+      </c>
+      <c r="B36">
+        <v>1.1872214450021512</v>
+      </c>
+      <c r="C36">
+        <v>238.5</v>
+      </c>
+      <c r="D36">
+        <v>1.0921223957666371</v>
+      </c>
+      <c r="E36">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="F36">
+        <v>9.5099049235514155E-2</v>
+      </c>
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>245.60000000000002</v>
+      </c>
+      <c r="B37">
+        <v>2.0546994054135155</v>
+      </c>
+      <c r="C37">
+        <v>245.4</v>
+      </c>
+      <c r="D37">
+        <v>2.1809895833333335</v>
+      </c>
+      <c r="E37">
+        <v>0.20000000000001705</v>
+      </c>
+      <c r="F37">
+        <v>-0.126290177919818</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>254</v>
+      </c>
+      <c r="B38">
+        <v>2.4873411307997975</v>
+      </c>
+      <c r="C38">
+        <v>252.4</v>
+      </c>
+      <c r="D38">
+        <v>1.6137695312333258</v>
+      </c>
+      <c r="E38">
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="F38">
+        <v>0.87357159956647168</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>260.3</v>
+      </c>
+      <c r="B39">
+        <v>1.6113366033470711</v>
+      </c>
+      <c r="C39">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="D39">
+        <v>2.2265625</v>
+      </c>
+      <c r="E39">
+        <v>2.4000000000000341</v>
+      </c>
+      <c r="F39">
+        <v>-0.61522589665292893</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>267.79999999999995</v>
+      </c>
+      <c r="B40">
+        <v>1.0456997675765161</v>
+      </c>
+      <c r="C40">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="D40">
+        <v>2.2566731770333113</v>
+      </c>
+      <c r="E40">
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="F40">
+        <v>-1.2109734094567952</v>
+      </c>
+      <c r="G40">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>273</v>
+      </c>
+      <c r="B41">
+        <v>1.8475277437430493</v>
+      </c>
+      <c r="C41">
+        <v>272.2</v>
+      </c>
+      <c r="D41">
+        <v>1.8121744791599972</v>
+      </c>
+      <c r="E41">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="F41">
+        <v>3.5353264583052102E-2</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="B42">
+        <v>2.2013151591136104</v>
+      </c>
+      <c r="C42">
+        <v>280.3</v>
+      </c>
+      <c r="D42">
+        <v>2.2185872395866681</v>
+      </c>
+      <c r="E42">
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="F42">
+        <v>-1.7272080473057727E-2</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="B43">
+        <v>1.1445522716803866</v>
+      </c>
+      <c r="C43">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="D43">
+        <v>0.71451822920001495</v>
+      </c>
+      <c r="E43">
+        <v>-4.7000000000000455</v>
+      </c>
+      <c r="F43">
+        <v>0.43003404248037169</v>
+      </c>
+      <c r="G43">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="B44">
+        <v>0.63117054090642666</v>
+      </c>
+      <c r="C44">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="D44">
+        <v>1.1083984375</v>
+      </c>
+      <c r="E44">
+        <v>-1.2999999999999545</v>
+      </c>
+      <c r="F44">
+        <v>-0.47722789659357334</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>313.8</v>
+      </c>
+      <c r="B45">
+        <v>1.1059050343743182</v>
+      </c>
+      <c r="C45">
+        <v>312.8</v>
+      </c>
+      <c r="D45">
+        <v>0.99772135423336294</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.10818368014095525</v>
+      </c>
+      <c r="G45">
+        <v>28</v>
+      </c>
+      <c r="H45">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>320.40000000000003</v>
+      </c>
+      <c r="B46">
+        <v>1.3883766672665554</v>
+      </c>
+      <c r="C46">
+        <v>319</v>
+      </c>
+      <c r="D46">
+        <v>1.4762369791666665</v>
+      </c>
+      <c r="E46">
+        <v>1.4000000000000341</v>
+      </c>
+      <c r="F46">
+        <v>-8.7860311900111121E-2</v>
+      </c>
+      <c r="G46">
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>325.79999999999995</v>
+      </c>
+      <c r="B47">
+        <v>1.7458104378614381</v>
+      </c>
+      <c r="C47">
+        <v>325.8</v>
+      </c>
+      <c r="D47">
+        <v>1.883138020833333</v>
+      </c>
+      <c r="E47">
+        <v>-5.6843418860808015E-14</v>
+      </c>
+      <c r="F47">
+        <v>-0.13732758297189496</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>333.6</v>
+      </c>
+      <c r="B48">
+        <v>0.69871373853806773</v>
+      </c>
+      <c r="C48">
+        <v>334</v>
+      </c>
+      <c r="D48">
+        <v>1.5323893229333407</v>
+      </c>
+      <c r="E48">
+        <v>-0.39999999999997726</v>
+      </c>
+      <c r="F48">
+        <v>-0.83367558439527301</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>340</v>
+      </c>
+      <c r="B49">
+        <v>1.153278853335733</v>
+      </c>
+      <c r="C49">
+        <v>338.8</v>
+      </c>
+      <c r="D49">
+        <v>1.3956705729333407</v>
+      </c>
+      <c r="E49">
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="F49">
+        <v>-0.24239171959760775</v>
+      </c>
+      <c r="G49">
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>344.9</v>
+      </c>
+      <c r="B50">
+        <v>1.2603908469750413</v>
+      </c>
+      <c r="C50">
+        <v>344.4</v>
+      </c>
+      <c r="D50">
+        <v>0.22135416663331853</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>1.0390366803417228</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>347.7</v>
+      </c>
+      <c r="B51">
+        <v>0.6108046618244114</v>
+      </c>
+      <c r="C51">
+        <v>350.3</v>
+      </c>
+      <c r="D51">
+        <v>0.3881835937733436</v>
+      </c>
+      <c r="E51">
+        <v>-2.6000000000000227</v>
+      </c>
+      <c r="F51">
+        <v>0.22262106805106779</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>357.3</v>
+      </c>
+      <c r="B52">
+        <v>1.2738274876273505</v>
+      </c>
+      <c r="C52">
+        <v>358.7</v>
+      </c>
+      <c r="D52">
+        <v>0.32958984376667411</v>
+      </c>
+      <c r="E52">
+        <v>-1.3999999999999773</v>
+      </c>
+      <c r="F52">
+        <v>0.94423764386067643</v>
+      </c>
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>357.3</v>
+      </c>
+      <c r="B53">
+        <v>1.2738274876273505</v>
+      </c>
+      <c r="C53">
+        <v>362.9</v>
+      </c>
+      <c r="D53">
+        <v>1.5087890625</v>
+      </c>
+      <c r="E53">
+        <v>-5.5999999999999659</v>
+      </c>
+      <c r="F53">
+        <v>-0.23496157487264946</v>
+      </c>
+      <c r="G53">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>369.20000000000005</v>
+      </c>
+      <c r="B54">
+        <v>0.86984385195291614</v>
+      </c>
+      <c r="C54">
+        <v>368.7</v>
+      </c>
+      <c r="D54">
+        <v>0.62597656250666955</v>
+      </c>
+      <c r="E54">
+        <v>0.50000000000005684</v>
+      </c>
+      <c r="F54">
+        <v>0.24386728944624658</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>375.7</v>
+      </c>
+      <c r="B55">
+        <v>1.2604900550990319</v>
+      </c>
+      <c r="C55">
+        <v>374.8</v>
+      </c>
+      <c r="D55">
+        <v>1.6446940104333407</v>
+      </c>
+      <c r="E55">
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="F55">
+        <v>-0.38420395533430884</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>381.4</v>
+      </c>
+      <c r="B56">
+        <v>1.8993835834545592</v>
+      </c>
+      <c r="C56">
+        <v>380.9</v>
+      </c>
+      <c r="D56">
+        <v>2.0849609375333484</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>-0.18557735407878928</v>
+      </c>
+      <c r="G56">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>387.8</v>
+      </c>
+      <c r="B57">
+        <v>0.96977651098811624</v>
+      </c>
+      <c r="C57">
+        <v>386.3</v>
+      </c>
+      <c r="D57">
+        <v>0.84309895833333348</v>
+      </c>
+      <c r="E57">
+        <v>1.5</v>
+      </c>
+      <c r="F57">
+        <v>0.12667755265478275</v>
+      </c>
+      <c r="G57">
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>396.6</v>
+      </c>
+      <c r="B58">
+        <v>0.82238451312507677</v>
+      </c>
+      <c r="C58">
+        <v>394.6</v>
+      </c>
+      <c r="D58">
+        <v>1.0262044270666593</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>-0.2038199139415825</v>
+      </c>
+      <c r="G58">
+        <v>14</v>
+      </c>
+      <c r="H58">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>401.5</v>
+      </c>
+      <c r="B59">
+        <v>2.8770180309513771</v>
+      </c>
+      <c r="C59">
+        <v>402.2</v>
+      </c>
+      <c r="D59">
+        <v>2.4047851561999778</v>
+      </c>
+      <c r="E59">
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="F59">
+        <v>0.4722328747513993</v>
+      </c>
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>4023</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>